--- a/DesignDoc/Table_Design_Hotel_Usecase.xlsx
+++ b/DesignDoc/Table_Design_Hotel_Usecase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\SRG_others\Project\Hotel Guest Loyalty Reward System\Sutapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BFED0F-6476-43F8-B8E1-86D0E390D45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B6CB02D3-DFDC-41ED-8D9F-9920DD58EEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CC7AD1D-D7A7-41F6-9007-89C8DDB258FD}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" firstSheet="1" activeTab="1" xr2:uid="{5C7F40B4-0781-4AAA-9F14-D8FF43AAC91C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{5C7F40B4-0781-4AAA-9F14-D8FF43AAC91C}"/>
   </bookViews>
   <sheets>
     <sheet name="HBS_Table-schema" sheetId="3" r:id="rId1"/>
@@ -292,7 +292,7 @@
     <t>Tier modification timestamp</t>
   </si>
   <si>
-    <t>End user wallet address created at the time of signing up</t>
+    <t>End user's existing wallet address connected with lrs</t>
   </si>
   <si>
     <t>Tier created by (only Business User)</t>
@@ -808,6 +808,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -819,9 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A435D3BE-C6CC-4AA6-8D9B-0B9E4194D460}">
   <dimension ref="A2:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1526,24 +1526,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1665,10 +1665,10 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="2" t="s">
@@ -1843,7 +1843,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="43.5">
+    <row r="21" spans="1:11" ht="29.25">
       <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
@@ -1980,18 +1980,18 @@
       <c r="K26" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="30.95" customHeight="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="30" spans="1:11" ht="15.95">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="20"/>
       <c r="F30" s="8" t="s">
         <v>98</v>
       </c>
@@ -2253,11 +2253,11 @@
       <c r="K40" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="15.95">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
       <c r="F42" s="8" t="s">
         <v>119</v>
       </c>
@@ -2709,7 +2709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB16BD5-7D9A-4059-A3A6-F87612A1F756}">
   <dimension ref="A2:A27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
